--- a/Coach_Training_Scenarios_ICF_PCC.xlsx
+++ b/Coach_Training_Scenarios_ICF_PCC.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Career" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Leadership" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Relationship" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Self Improvement" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Value System" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Career" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Leadership" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relationship" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Self Improvement" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Value System" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -465,58 +465,234 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>C001</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>I feel stuck in my current role. I've been doing the same thing for 5 years and I'm not sure if I should stay or look for something new.</t>
+          <t>I’ve been in my job for years and feel like I’m not growing anymore.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>What would feeling unstuck look like for you?</t>
+          <t>What does growth mean to you right now?</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>If you imagine yourself five years from now, what does success look like?</t>
+          <t>What would it look like if you were fulfilled at work?</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>What's the cost of staying versus the cost of leaving?</t>
+          <t>What part of you is asking for change?</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>C002</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I got passed over for a promotion again. My manager says I need to be more strategic, but I don't know what that means.</t>
+          <t>I keep getting overlooked for promotions and it’s starting to affect my confidence.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>What does 'being strategic' mean to you?</t>
+          <t>How do you interpret being overlooked?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>When you think about leaders you admire, what behaviors do they demonstrate that you'd like to embody?</t>
+          <t>What story might you be telling yourself about this situation?</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>What would be different if you were showing up more strategically?</t>
-        </is>
-      </c>
+          <t>What kind of recognition feels meaningful to you?</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>I love my field but dread going to work most days.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>What’s missing that used to make it enjoyable?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>What might you be tolerating that drains your energy?</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>I’m torn between staying in a stable job and pursuing something uncertain that excites me.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>What does stability give you?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>What draws you to the uncertainty?</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>What would balance between the two look like?</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>I just got promoted and I feel like I don’t belong at this level.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>What does belonging mean to you here?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>How do you usually respond when you doubt yourself?</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>What helps you remember your capabilities?</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>I’m unsure if I picked the right career path at all.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>What drew you to it initially?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>What does a 'right path' look like for you?</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>If you could redesign it, what would be different?</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>I feel pressure to achieve more even though I’m already doing well.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Where does that pressure come from?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>How do you define 'enough' for yourself?</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>I struggle with setting boundaries at work without feeling guilty.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>What does saying 'no' represent for you?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>What might make boundary-setting feel safer?</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>I’m considering a career change but fear starting over.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>What part of starting over feels hardest?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>What possibilities come with a fresh start?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>I can’t decide whether to take a job that pays more but feels misaligned with my values.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>What values would be honored or compromised?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>How might alignment and compensation coexist for you?</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -529,7 +705,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -565,58 +741,214 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>L001</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My team doesn't seem motivated anymore. I try to be supportive, but nothing seems to work.</t>
+          <t>My team isn’t as motivated as I’d like them to be.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>What does motivation look like to you, and how would you know if your team had it?</t>
+          <t>What do you notice about their engagement?</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>What have you noticed about when your team is most engaged?</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>How might your own energy be influencing the team's motivation?</t>
-        </is>
-      </c>
+          <t>What might they be needing from your leadership?</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>L002</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I have to give difficult feedback to a team member who's underperforming, but I'm worried about damaging our relationship.</t>
+          <t>I’m new in this leadership role and afraid of making mistakes.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>What's the relationship you want to have on the other side of this conversation?</t>
+          <t>What does making a mistake mean to you as a leader?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>What might happen if you don't have this conversation?</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>How can you deliver this feedback in a way that honors both the relationship and the standards you hold?</t>
-        </is>
-      </c>
+          <t>What kind of leader do you want to be known as?</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>I find it hard to delegate — I end up doing most things myself.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>What makes delegation difficult for you?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>What could trusting others open up for you?</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>One of my team members constantly challenges me in meetings.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>What do you think they’re trying to communicate?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>What might this be offering you as a growth opportunity?</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>I want to inspire people, but I’m not sure how to connect emotionally with them.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>What does authentic connection look like to you?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>When have you felt inspired by someone — what did they do?</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>I’m struggling with imposter feelings even though I’m performing well.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>When did you first notice that feeling?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>What helps you recognize your strengths in these moments?</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>I avoid giving tough feedback because I don’t want to hurt anyone.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>What do you believe will happen if you give that feedback?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>How might feedback serve growth instead of harm?</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>I feel isolated at the top — I can’t share my doubts with anyone at work.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Who could be part of your support system?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>What would it mean to allow vulnerability in leadership?</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>My manager’s expectations seem unclear, and it’s causing stress.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>What clarity do you need most?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>How might you initiate that conversation?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>I want to lead with empathy but still get results.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>How do you define empathy in leadership?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>What would balance look like between care and accountability?</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -629,7 +961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,58 +997,214 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>R001</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My partner and I keep having the same argument over and over. We just can't seem to communicate effectively.</t>
+          <t>I feel unheard in my relationship, like my partner doesn’t really get me.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>What pattern do you notice in how these arguments unfold?</t>
+          <t>What does being heard look like for you?</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>What would effective communication look like for you?</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>What's underneath this recurring argument for you?</t>
-        </is>
-      </c>
+          <t>How have you tried expressing this need before?</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>R002</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I feel like I'm always the one making compromises in my relationships. How do I set better boundaries?</t>
+          <t>I avoid conflicts and end up suppressing how I really feel.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>What would honoring yourself fully look like in these relationships?</t>
+          <t>What happens for you when you avoid conflict?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>What are you afraid might happen if you set that boundary?</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Where in your life are you already setting boundaries successfully?</t>
-        </is>
-      </c>
+          <t>What might be possible if you allowed your feelings to be seen?</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>I feel jealous even when I know I shouldn’t.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>What might jealousy be trying to tell you?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>How could you meet the need underneath it?</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>I love my partner but sometimes I crave more independence.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>What does independence mean to you in this context?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>How might you express that without creating distance?</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>I keep attracting the same type of partner and ending up disappointed.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>What patterns do you notice in these relationships?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>What part of you might be seeking familiarity?</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>I don’t know how to rebuild trust after being hurt.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>What would rebuilding trust look like for you?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>What does forgiveness mean in your situation?</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>I often feel responsible for my partner’s emotions.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>What makes you feel responsible for how they feel?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>What would it look like to let them hold their own emotions?</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>I’m afraid to be fully myself in my relationship.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>What part of yourself do you hold back?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>What would it take to bring more of you into the relationship?</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>I feel torn between family expectations and my partner’s needs.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>What values are in tension here?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>What would honoring both sides look like?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>I’ve grown but my relationship hasn’t kept up.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>What do you need now that you didn’t before?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>What does growth mean for the two of you together?</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -729,7 +1217,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -765,58 +1253,214 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>S001</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>I know I should exercise and eat better, but I just can't seem to stick with it. I start strong and then give up.</t>
+          <t>I’m constantly overthinking every decision I make.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>What happens right before you give up?</t>
+          <t>What are you hoping to avoid by overthinking?</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>What would be different if this time you didn't give up?</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>What are you really committed to in your life right now?</t>
-        </is>
-      </c>
+          <t>What might trusting yourself look like?</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>S002</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I'm a perfectionist and it's holding me back. I spend too much time on details and never feel like my work is good enough.</t>
+          <t>I struggle with self-discipline and often let myself down.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>What would 'good enough' look like?</t>
+          <t>What’s underneath that pattern?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>What's the gift that your perfectionism has given you?</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>What becomes possible when you let go of perfect?</t>
-        </is>
-      </c>
+          <t>What helps you stay committed when you truly care?</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>I want to be more confident but don’t know where to start.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>What does confidence feel like to you?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>When have you felt confident before — what was different?</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>I’m afraid of being judged if I show the real me.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Who are you when you’re not managing others’ perceptions?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>What would acceptance look like if it started from within?</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>I procrastinate even when I know it’s hurting me.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>What’s the emotion behind your procrastination?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>What might progress, not perfection, look like?</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>I’m harsh on myself when I make mistakes.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>What would compassion sound like in those moments?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>What belief drives that self-talk?</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>I feel lost — like I don’t know who I am anymore.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>What parts of you feel forgotten or quiet lately?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>What might rediscovering yourself involve?</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>I can’t seem to sustain motivation for my goals.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>What’s missing that would make those goals meaningful again?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>How do you know when something truly matters to you?</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>I’m comparing myself to others all the time.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>What happens for you when you compare yourself?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>What might celebrating your own path look like?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>I want to break free from old habits that don’t serve me anymore.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>What purpose did those habits once serve?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>What new pattern could replace them now?</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -829,7 +1473,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,58 +1509,214 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>V001</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>I feel like I'm living someone else's life. I have a great job and family, but something feels off.</t>
+          <t>I’m not sure what my core values are anymore.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>What would living your own life look like?</t>
+          <t>What qualities feel most essential to who you are?</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>If you could design your life from scratch today, what would you keep and what would you change?</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>What values are you honoring, and which ones are you compromising?</t>
-        </is>
-      </c>
+          <t>When do you feel most aligned with yourself?</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>V002</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>I'm torn between taking a higher-paying job that requires more travel and staying in my current role where I can be home with my kids every night.</t>
+          <t>I feel torn between what I believe and what others expect of me.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>What matters most to you right now in this season of your life?</t>
+          <t>What’s the cost of betraying your own values?</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>How do you want to feel about this decision a year from now?</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>What would help you know you're making the right choice for you?</t>
-        </is>
-      </c>
+          <t>What would honoring them look like here?</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>I sometimes compromise my values to keep the peace.</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>What value are you protecting when you do that?</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>What would standing firm respectfully look like?</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>I want to live with more integrity but struggle with fear of judgment.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>What does integrity mean to you in daily life?</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>What might courage look like in this context?</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>I feel disconnected from what truly matters to me.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>When was the last time you felt deeply connected?</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>What helped you feel that way?</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>I’m chasing success but wonder if it aligns with who I want to be.</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>How do you define success for yourself?</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>What part of this pursuit feels off?</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>I want to make a difference but don’t know where to start.</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>What kind of impact feels meaningful to you?</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>What’s one small way to begin?</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>I’m facing a moral dilemma at work and it’s weighing on me.</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>What values are in conflict here?</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>What outcome would feel most aligned for you?</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>I’ve realized I’ve been living by others’ standards, not mine.</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Whose standards have you been following?</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>What does living by your own look like?</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>I’m questioning what legacy I want to leave behind.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>What would you want people to remember about you?</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>How could you start embodying that today?</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
